--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -93,64 +93,64 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>2007</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>DJ</t>
@@ -336,7 +336,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -465,7 +465,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1029,10 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1083,16 +1083,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1129,10 +1129,10 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1143,16 +1143,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1172,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1229,7 +1229,7 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1372,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1732,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1749,7 +1749,7 @@
         <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1892,7 +1892,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1972,7 +1972,7 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>

--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -33,22 +33,49 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN 2010 World Population and Housing Census Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://unstats.un.org/unsd/demographic/sources/census/censusdates.htm</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
-    <t xml:space="preserve">UN 2010 World Population and Housing Census Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://unstats.un.org/unsd/demographic/sources/census/censusdates.htm</t>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -66,25 +93,70 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -105,322 +177,250 @@
     <t xml:space="preserve">http://aceproject.org/today/feature-articles/post-transitional-elections-in-the-democratic-republic-of-congo</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1013,30 +1013,30 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1047,16 +1047,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1087,16 +1087,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1187,36 +1187,36 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1253,10 +1253,10 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1287,16 +1287,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1307,16 +1307,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
         <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1393,10 +1393,10 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1456,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1473,10 +1473,10 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1576,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1596,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1733,10 +1733,10 @@
         <v>111</v>
       </c>
       <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
         <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>117</v>
@@ -1796,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1876,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1896,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1936,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -1953,10 +1953,10 @@
         <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>

--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -33,22 +33,49 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN 2010 World Population and Housing Census Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://unstats.un.org/unsd/demographic/sources/census/censusdates.htm</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
-    <t xml:space="preserve">UN 2010 World Population and Housing Census Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://unstats.un.org/unsd/demographic/sources/census/censusdates.htm</t>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -66,25 +93,70 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -105,322 +177,250 @@
     <t xml:space="preserve">http://aceproject.org/today/feature-articles/post-transitional-elections-in-the-democratic-republic-of-congo</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1013,30 +1013,30 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1047,16 +1047,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1087,16 +1087,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1187,36 +1187,36 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1253,10 +1253,10 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1287,16 +1287,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1307,16 +1307,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1327,16 +1327,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1356,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1393,10 +1393,10 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1416,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1436,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1456,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1473,10 +1473,10 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -1576,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1596,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -1656,7 +1656,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1733,10 +1733,10 @@
         <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
         <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -1773,7 +1773,7 @@
         <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>117</v>
@@ -1796,7 +1796,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1876,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1896,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1936,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -1953,10 +1953,10 @@
         <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>

--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">2008</t>
@@ -93,64 +93,64 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">DJ</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">1981</t>
@@ -441,34 +441,34 @@
     <t xml:space="preserve">Description: The year of the last population census.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: UNDESA Population and Vital Statistics Report. Data as available at January 2014.</t>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -821,15 +821,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -843,31 +847,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1033,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1047,16 +1046,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1067,16 +1066,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1087,16 +1086,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1107,16 +1106,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1133,10 +1132,10 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1147,16 +1146,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1176,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1233,7 +1232,7 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -1276,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1336,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -1376,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1396,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1516,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1596,7 +1595,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -1736,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1753,7 +1752,7 @@
         <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
@@ -1856,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -1896,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1976,7 +1975,7 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>

--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 75</t>
+    <t xml:space="preserve">Source: 76</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 76</t>
+    <t xml:space="preserve">Source: 78</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 75</t>
+    <t xml:space="preserve">Source: 78</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/latest-census/latest-census.xlsx
+++ b/user-data/latest-census/latest-census.xlsx
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 78</t>
+    <t xml:space="preserve">Source: 77</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
